--- a/results/MVSE/aminer/MVSE_aminer<l10><WL>87.26.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l10><WL>87.26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -621,26 +621,26 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="M3" t="n">
-        <v>87.08</v>
+        <v>87.23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04</v>
+        <v>0.52</v>
       </c>
       <c r="O3" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-16_06_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_16_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WL_0.025_0.025_0.95</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-19_28_06', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-16_06_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>WL_0.05_0.05_0.9</t>
+          <t>WL_0.025_0.025_0.95</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-21_07_35', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-19_28_06', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -806,11 +806,11 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>WL_0.1_0.1_0.8</t>
+          <t>WL_0.05_0.05_0.9</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0.51</v>
@@ -826,13 +826,13 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-22_14_56', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-21_07_35', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -870,25 +870,281 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>WL_0_0_1</t>
+          <t>WL_0.1_0.1_0.8</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-02_08_54', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>128</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>WL_0.2_0.2_0.6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-03_48_36', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>128</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>WL_0.25_0.25_0.5</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-05_27_07', 'cl_mode': 'WL_0.25_0.25_0.5', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>128</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>WL_0.33_0.33_0.33</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-07_03_33', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.34</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M11" t="n">
         <v>86.92</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O11" t="n">
         <v>0.21</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
